--- a/biology/Médecine/Hôpital_Jean-Verdier/Hôpital_Jean-Verdier.xlsx
+++ b/biology/Médecine/Hôpital_Jean-Verdier/Hôpital_Jean-Verdier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Jean-Verdier</t>
+          <t>Hôpital_Jean-Verdier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Jean-Verdier est un hôpital de l'Assistance publique - Hôpitaux de Paris (AP-HP) situé à Bondy (Seine-Saint-Denis).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Jean-Verdier</t>
+          <t>Hôpital_Jean-Verdier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Jean-Verdier</t>
+          <t>Hôpital_Jean-Verdier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,9 +553,11 @@
           <t>Regroupement des services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2011, date à laquelle l’établissement a été groupé avec les hôpitaux Avicenne et René-Muret de Sevran, il perd progressivement ses services ; la question du devenir de l'hôpital se pose alors chez le personnel[1], bien que l'APHP assure ne pas remettre en cause sa viabilité[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2011, date à laquelle l’établissement a été groupé avec les hôpitaux Avicenne et René-Muret de Sevran, il perd progressivement ses services ; la question du devenir de l'hôpital se pose alors chez le personnel, bien que l'APHP assure ne pas remettre en cause sa viabilité.
 </t>
         </is>
       </c>
